--- a/B.xlsx
+++ b/B.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\magic_merge_excel_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED2A536-8583-4CDB-A2FD-A48B3FDAD596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B52DD71-76F2-43FB-843C-C812567865E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5539,10 +5539,10 @@
     <t>商標権償却</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>発生</t>
+  </si>
+  <si>
+    <t>zzzzz</t>
   </si>
 </sst>
 </file>
@@ -5625,7 +5625,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5637,6 +5637,9 @@
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5974,8 +5977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A1092" workbookViewId="0">
+      <selection activeCell="F1123" sqref="F1123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6020,7 +6023,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>9</v>
@@ -45239,11 +45242,11 @@
       <c r="D1122" s="1" t="s">
         <v>1837</v>
       </c>
-      <c r="E1122" s="1" t="s">
-        <v>1838</v>
-      </c>
-      <c r="F1122" s="1" t="s">
-        <v>1838</v>
+      <c r="E1122" s="4" t="s">
+        <v>1839</v>
+      </c>
+      <c r="F1122" s="4" t="s">
+        <v>1839</v>
       </c>
       <c r="G1122" s="3">
         <v>17008</v>

--- a/B.xlsx
+++ b/B.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\magic_merge_excel_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Fast_Merge_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B52DD71-76F2-43FB-843C-C812567865E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E52BD3-8724-46B0-BC2E-6350B82F45C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6737" uniqueCount="1840">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6735" uniqueCount="1839">
   <si>
     <t>部門コード</t>
   </si>
@@ -5540,9 +5540,6 @@
   </si>
   <si>
     <t>発生</t>
-  </si>
-  <si>
-    <t>zzzzz</t>
   </si>
 </sst>
 </file>
@@ -5977,8 +5974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1092" workbookViewId="0">
-      <selection activeCell="F1123" sqref="F1123"/>
+    <sheetView tabSelected="1" topLeftCell="B1109" workbookViewId="0">
+      <selection activeCell="F1122" sqref="F1122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -45242,12 +45239,8 @@
       <c r="D1122" s="1" t="s">
         <v>1837</v>
       </c>
-      <c r="E1122" s="4" t="s">
-        <v>1839</v>
-      </c>
-      <c r="F1122" s="4" t="s">
-        <v>1839</v>
-      </c>
+      <c r="E1122" s="4"/>
+      <c r="F1122" s="4"/>
       <c r="G1122" s="3">
         <v>17008</v>
       </c>
